--- a/Vishal Patel/WritetoEXCEL/Evaluation/TFIDF_scores_query_/TFIDF_scores_query_1_evaluation.xlsx
+++ b/Vishal Patel/WritetoEXCEL/Evaluation/TFIDF_scores_query_/TFIDF_scores_query_1_evaluation.xlsx
@@ -384,7 +384,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Precision on x recall on y</c:v>
+            <c:v>Precision vs recall</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1016,6 +1016,7 @@
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="true"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1026,6 +1027,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="false"/>
         <c:axPos val="l"/>
@@ -1037,6 +1040,10 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:overlay val="false"/>
+    </c:legend>
     <c:plotVisOnly val="true"/>
   </c:chart>
   <c:printSettings>

--- a/Vishal Patel/WritetoEXCEL/Evaluation/TFIDF_scores_query_/TFIDF_scores_query_1_evaluation.xlsx
+++ b/Vishal Patel/WritetoEXCEL/Evaluation/TFIDF_scores_query_/TFIDF_scores_query_1_evaluation.xlsx
@@ -384,7 +384,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Precision vs recall</c:v>
+            <c:v>Precision vs recall
+Precision on X-Axis
+Recall on y-Axis</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1042,7 +1044,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
-      <c:overlay val="false"/>
+      <c:overlay val="true"/>
     </c:legend>
     <c:plotVisOnly val="true"/>
   </c:chart>

--- a/Vishal Patel/WritetoEXCEL/Evaluation/TFIDF_scores_query_/TFIDF_scores_query_1_evaluation.xlsx
+++ b/Vishal Patel/WritetoEXCEL/Evaluation/TFIDF_scores_query_/TFIDF_scores_query_1_evaluation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Rank</t>
   </si>
@@ -26,94 +26,124 @@
     <t>Recall</t>
   </si>
   <si>
+    <t>CACM-1827</t>
+  </si>
+  <si>
+    <t>CACM-1844</t>
+  </si>
+  <si>
     <t>CACM-2319</t>
   </si>
   <si>
-    <t>CACM-1844</t>
-  </si>
-  <si>
-    <t>CACM-1827</t>
+    <t>CACM-1605</t>
+  </si>
+  <si>
+    <t>CACM-2344</t>
   </si>
   <si>
     <t>CACM-1938</t>
   </si>
   <si>
-    <t>CACM-1605</t>
-  </si>
-  <si>
     <t>CACM-2218</t>
   </si>
   <si>
-    <t>CACM-2344</t>
+    <t>CACM-2054</t>
+  </si>
+  <si>
+    <t>CACM-2378</t>
   </si>
   <si>
     <t>CACM-2219</t>
   </si>
   <si>
+    <t>CACM-1033</t>
+  </si>
+  <si>
+    <t>CACM-2535</t>
+  </si>
+  <si>
+    <t>CACM-2357</t>
+  </si>
+  <si>
+    <t>CACM-2379</t>
+  </si>
+  <si>
     <t>CACM-2629</t>
   </si>
   <si>
-    <t>CACM-2054</t>
+    <t>CACM-2003</t>
+  </si>
+  <si>
+    <t>CACM-2424</t>
+  </si>
+  <si>
+    <t>CACM-1264</t>
+  </si>
+  <si>
+    <t>CACM-1657</t>
+  </si>
+  <si>
+    <t>CACM-2380</t>
   </si>
   <si>
     <t>CACM-1410</t>
   </si>
   <si>
-    <t>CACM-2379</t>
-  </si>
-  <si>
-    <t>CACM-2378</t>
-  </si>
-  <si>
-    <t>CACM-2424</t>
+    <t>CACM-2947</t>
   </si>
   <si>
     <t>CACM-1908</t>
   </si>
   <si>
-    <t>CACM-2535</t>
-  </si>
-  <si>
-    <t>CACM-2357</t>
-  </si>
-  <si>
-    <t>CACM-1657</t>
+    <t>CACM-1393</t>
+  </si>
+  <si>
+    <t>CACM-1698</t>
   </si>
   <si>
     <t>CACM-1680</t>
   </si>
   <si>
-    <t>CACM-1698</t>
-  </si>
-  <si>
-    <t>CACM-1033</t>
-  </si>
-  <si>
-    <t>CACM-2380</t>
+    <t>CACM-2632</t>
+  </si>
+  <si>
+    <t>CACM-2501</t>
+  </si>
+  <si>
+    <t>CACM-1519</t>
+  </si>
+  <si>
+    <t>CACM-1572</t>
+  </si>
+  <si>
+    <t>CACM-1523</t>
+  </si>
+  <si>
+    <t>CACM-2541</t>
+  </si>
+  <si>
+    <t>CACM-1665</t>
   </si>
   <si>
     <t>CACM-1752</t>
   </si>
   <si>
-    <t>CACM-1572</t>
-  </si>
-  <si>
-    <t>CACM-1519</t>
-  </si>
-  <si>
     <t>CACM-3048</t>
   </si>
   <si>
-    <t>CACM-2003</t>
-  </si>
-  <si>
-    <t>CACM-2541</t>
-  </si>
-  <si>
-    <t>CACM-2947</t>
-  </si>
-  <si>
-    <t>CACM-1264</t>
+    <t>CACM-2188</t>
+  </si>
+  <si>
+    <t>CACM-2950</t>
+  </si>
+  <si>
+    <t>CACM-0637</t>
+  </si>
+  <si>
+    <t>CACM-1315</t>
+  </si>
+  <si>
+    <t>CACM-3112</t>
   </si>
   <si>
     <t>CACM-1805</t>
@@ -122,208 +152,181 @@
     <t>CACM-2500</t>
   </si>
   <si>
-    <t>CACM-2632</t>
+    <t>CACM-3087</t>
+  </si>
+  <si>
+    <t>CACM-1506</t>
+  </si>
+  <si>
+    <t>CACM-1885</t>
+  </si>
+  <si>
+    <t>CACM-0585</t>
+  </si>
+  <si>
+    <t>CACM-1591</t>
+  </si>
+  <si>
+    <t>CACM-3127</t>
+  </si>
+  <si>
+    <t>CACM-1749</t>
+  </si>
+  <si>
+    <t>CACM-2951</t>
+  </si>
+  <si>
+    <t>CACM-1161</t>
+  </si>
+  <si>
+    <t>CACM-1747</t>
+  </si>
+  <si>
+    <t>CACM-2542</t>
+  </si>
+  <si>
+    <t>CACM-2371</t>
   </si>
   <si>
     <t>CACM-2151</t>
   </si>
   <si>
+    <t>CACM-2740</t>
+  </si>
+  <si>
+    <t>CACM-2470</t>
+  </si>
+  <si>
+    <t>CACM-2948</t>
+  </si>
+  <si>
+    <t>CACM-2841</t>
+  </si>
+  <si>
+    <t>CACM-2622</t>
+  </si>
+  <si>
+    <t>CACM-1750</t>
+  </si>
+  <si>
+    <t>CACM-0972</t>
+  </si>
+  <si>
+    <t>CACM-2838</t>
+  </si>
+  <si>
+    <t>CACM-1626</t>
+  </si>
+  <si>
+    <t>CACM-1487</t>
+  </si>
+  <si>
+    <t>CACM-1719</t>
+  </si>
+  <si>
+    <t>CACM-1408</t>
+  </si>
+  <si>
     <t>CACM-2358</t>
   </si>
   <si>
-    <t>CACM-1747</t>
-  </si>
-  <si>
-    <t>CACM-2740</t>
-  </si>
-  <si>
-    <t>CACM-3127</t>
-  </si>
-  <si>
-    <t>CACM-1523</t>
-  </si>
-  <si>
-    <t>CACM-2501</t>
-  </si>
-  <si>
-    <t>CACM-0585</t>
-  </si>
-  <si>
-    <t>CACM-1161</t>
-  </si>
-  <si>
-    <t>CACM-2371</t>
-  </si>
-  <si>
-    <t>CACM-1749</t>
-  </si>
-  <si>
-    <t>CACM-2951</t>
-  </si>
-  <si>
-    <t>CACM-2950</t>
-  </si>
-  <si>
-    <t>CACM-1506</t>
-  </si>
-  <si>
-    <t>CACM-3112</t>
-  </si>
-  <si>
-    <t>CACM-1591</t>
+    <t>CACM-2035</t>
+  </si>
+  <si>
+    <t>CACM-1464</t>
+  </si>
+  <si>
+    <t>CACM-1811</t>
+  </si>
+  <si>
+    <t>CACM-1170</t>
+  </si>
+  <si>
+    <t>CACM-1647</t>
+  </si>
+  <si>
+    <t>CACM-1226</t>
   </si>
   <si>
     <t>CACM-2317</t>
   </si>
   <si>
-    <t>CACM-1315</t>
-  </si>
-  <si>
-    <t>CACM-1750</t>
+    <t>CACM-2092</t>
+  </si>
+  <si>
+    <t>CACM-1544</t>
+  </si>
+  <si>
+    <t>CACM-1829</t>
   </si>
   <si>
     <t>CACM-2920</t>
   </si>
   <si>
-    <t>CACM-1393</t>
-  </si>
-  <si>
-    <t>CACM-1647</t>
-  </si>
-  <si>
-    <t>CACM-0637</t>
-  </si>
-  <si>
-    <t>CACM-1408</t>
-  </si>
-  <si>
-    <t>CACM-2188</t>
-  </si>
-  <si>
-    <t>CACM-2948</t>
-  </si>
-  <si>
-    <t>CACM-2622</t>
-  </si>
-  <si>
-    <t>CACM-1885</t>
-  </si>
-  <si>
-    <t>CACM-2542</t>
+    <t>CACM-2767</t>
+  </si>
+  <si>
+    <t>CACM-1542</t>
+  </si>
+  <si>
+    <t>CACM-2398</t>
+  </si>
+  <si>
+    <t>CACM-1179</t>
+  </si>
+  <si>
+    <t>CACM-1071</t>
   </si>
   <si>
     <t>CACM-2522</t>
   </si>
   <si>
-    <t>CACM-1665</t>
-  </si>
-  <si>
-    <t>CACM-1464</t>
-  </si>
-  <si>
-    <t>CACM-1071</t>
-  </si>
-  <si>
-    <t>CACM-1487</t>
+    <t>CACM-1589</t>
+  </si>
+  <si>
+    <t>CACM-3015</t>
+  </si>
+  <si>
+    <t>CACM-3068</t>
+  </si>
+  <si>
+    <t>CACM-2153</t>
+  </si>
+  <si>
+    <t>CACM-2560</t>
+  </si>
+  <si>
+    <t>CACM-1173</t>
+  </si>
+  <si>
+    <t>CACM-3077</t>
+  </si>
+  <si>
+    <t>CACM-3153</t>
+  </si>
+  <si>
+    <t>CACM-2878</t>
+  </si>
+  <si>
+    <t>CACM-1962</t>
+  </si>
+  <si>
+    <t>CACM-1412</t>
+  </si>
+  <si>
+    <t>CACM-1824</t>
+  </si>
+  <si>
+    <t>CACM-2201</t>
   </si>
   <si>
     <t>CACM-3025</t>
   </si>
   <si>
-    <t>CACM-2439</t>
-  </si>
-  <si>
     <t>CACM-1236</t>
   </si>
   <si>
-    <t>CACM-3087</t>
-  </si>
-  <si>
-    <t>CACM-1544</t>
-  </si>
-  <si>
-    <t>CACM-2838</t>
-  </si>
-  <si>
-    <t>CACM-1719</t>
-  </si>
-  <si>
-    <t>CACM-0971</t>
-  </si>
-  <si>
-    <t>CACM-3069</t>
-  </si>
-  <si>
-    <t>CACM-2092</t>
-  </si>
-  <si>
-    <t>CACM-1542</t>
-  </si>
-  <si>
-    <t>CACM-2893</t>
-  </si>
-  <si>
-    <t>CACM-2841</t>
-  </si>
-  <si>
-    <t>CACM-3068</t>
-  </si>
-  <si>
-    <t>CACM-2470</t>
-  </si>
-  <si>
-    <t>CACM-3077</t>
-  </si>
-  <si>
-    <t>CACM-1892</t>
-  </si>
-  <si>
-    <t>CACM-0972</t>
-  </si>
-  <si>
-    <t>CACM-1179</t>
-  </si>
-  <si>
-    <t>CACM-2398</t>
-  </si>
-  <si>
-    <t>CACM-1462</t>
-  </si>
-  <si>
-    <t>CACM-2036</t>
-  </si>
-  <si>
-    <t>CACM-1877</t>
-  </si>
-  <si>
-    <t>CACM-1170</t>
-  </si>
-  <si>
-    <t>CACM-1226</t>
-  </si>
-  <si>
-    <t>CACM-2372</t>
-  </si>
-  <si>
-    <t>CACM-1626</t>
-  </si>
-  <si>
-    <t>CACM-1960</t>
-  </si>
-  <si>
-    <t>CACM-1769</t>
-  </si>
-  <si>
-    <t>CACM-2878</t>
-  </si>
-  <si>
-    <t>CACM-0397</t>
-  </si>
-  <si>
-    <t>CACM-2868</t>
-  </si>
-  <si>
-    <t>CACM-2035</t>
+    <t>MAP is -&gt;0.0</t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.2</c:v>
@@ -427,34 +430,34 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.4</c:v>
@@ -466,22 +469,22 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.6</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.6</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.6</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.6</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.6</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.6</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.6</c:v>
@@ -499,103 +502,103 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>0.8</c:v>
@@ -714,7 +717,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.2</c:v>
@@ -735,34 +738,34 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18181818181818182</c:v>
+                  <c:v>0.09090909090909091</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.08333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.15384615384615385</c:v>
+                  <c:v>0.07692307692307693</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0.07142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.13333333333333333</c:v>
+                  <c:v>0.06666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.125</c:v>
+                  <c:v>0.0625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.11764705882352941</c:v>
+                  <c:v>0.058823529411764705</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.05555555555555555</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.10526315789473684</c:v>
+                  <c:v>0.05263157894736842</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.09523809523809523</c:v>
@@ -774,22 +777,22 @@
                   <c:v>0.08695652173913043</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.125</c:v>
+                  <c:v>0.08333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.12</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.11538461538461539</c:v>
+                  <c:v>0.07692307692307693</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.07407407407407407</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.10714285714285714</c:v>
+                  <c:v>0.07142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.10344827586206896</c:v>
+                  <c:v>0.06896551724137931</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.1</c:v>
@@ -807,103 +810,103 @@
                   <c:v>0.08823529411764706</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.11428571428571428</c:v>
+                  <c:v>0.08571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.08333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.10810810810810811</c:v>
+                  <c:v>0.08108108108108109</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.10526315789473684</c:v>
+                  <c:v>0.07894736842105263</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.10256410256410256</c:v>
+                  <c:v>0.07692307692307693</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.1</c:v>
+                  <c:v>0.075</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0975609756097561</c:v>
+                  <c:v>0.07317073170731707</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.09523809523809523</c:v>
+                  <c:v>0.07142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.09302325581395349</c:v>
+                  <c:v>0.06976744186046512</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.09090909090909091</c:v>
+                  <c:v>0.06818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.08888888888888889</c:v>
+                  <c:v>0.06666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.08695652173913043</c:v>
+                  <c:v>0.06521739130434782</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0851063829787234</c:v>
+                  <c:v>0.06382978723404255</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.08333333333333333</c:v>
+                  <c:v>0.0625</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.08163265306122448</c:v>
+                  <c:v>0.061224489795918366</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.08</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.0784313725490196</c:v>
+                  <c:v>0.058823529411764705</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.07692307692307693</c:v>
+                  <c:v>0.057692307692307696</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.07547169811320754</c:v>
+                  <c:v>0.05660377358490566</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.07407407407407407</c:v>
+                  <c:v>0.05555555555555555</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.07272727272727272</c:v>
+                  <c:v>0.05454545454545454</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.07142857142857142</c:v>
+                  <c:v>0.05357142857142857</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.07017543859649122</c:v>
+                  <c:v>0.05263157894736842</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.06896551724137931</c:v>
+                  <c:v>0.05172413793103448</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.06779661016949153</c:v>
+                  <c:v>0.05084745762711865</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.06666666666666667</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.06557377049180328</c:v>
+                  <c:v>0.04918032786885246</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.06451612903225806</c:v>
+                  <c:v>0.04838709677419355</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.06349206349206349</c:v>
+                  <c:v>0.047619047619047616</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.0625</c:v>
+                  <c:v>0.046875</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.06153846153846154</c:v>
+                  <c:v>0.046153846153846156</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.06060606060606061</c:v>
+                  <c:v>0.045454545454545456</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.05970149253731343</c:v>
+                  <c:v>0.04477611940298507</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>0.058823529411764705</c:v>
@@ -1093,7 +1096,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:CZ102"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1169,10 +1172,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -1267,10 +1270,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>0.18181818181818182</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13">
@@ -1281,10 +1284,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14">
@@ -1295,10 +1298,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>0.15384615384615385</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15">
@@ -1309,10 +1312,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>0.14285714285714285</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16">
@@ -1323,10 +1326,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>0.13333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17">
@@ -1337,10 +1340,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18">
@@ -1351,10 +1354,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>0.11764705882352941</v>
+        <v>0.058823529411764705</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19">
@@ -1365,10 +1368,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20">
@@ -1379,10 +1382,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="n">
-        <v>0.10526315789473684</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21">
@@ -1393,10 +1396,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22">
@@ -1449,10 +1452,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v>0.125</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="26">
@@ -1463,10 +1466,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="27">
@@ -1477,10 +1480,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="n">
-        <v>0.11538461538461539</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28">
@@ -1491,10 +1494,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29">
@@ -1505,10 +1508,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="n">
-        <v>0.10714285714285714</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="30">
@@ -1519,10 +1522,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="n">
-        <v>0.10344827586206896</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="31">
@@ -1603,10 +1606,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="n">
-        <v>0.11428571428571428</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="37">
@@ -1617,10 +1620,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="38">
@@ -1631,10 +1634,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="n">
-        <v>0.10810810810810811</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="39">
@@ -1645,10 +1648,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="n">
-        <v>0.10526315789473684</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="40">
@@ -1659,10 +1662,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="n">
-        <v>0.10256410256410256</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="41">
@@ -1673,10 +1676,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1</v>
+        <v>0.075</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="42">
@@ -1687,10 +1690,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0975609756097561</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="43">
@@ -1701,10 +1704,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="44">
@@ -1715,10 +1718,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="n">
-        <v>0.09302325581395349</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="45">
@@ -1729,10 +1732,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="46">
@@ -1743,10 +1746,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08888888888888889</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="47">
@@ -1757,10 +1760,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="48">
@@ -1771,10 +1774,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0851063829787234</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="49">
@@ -1785,10 +1788,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.0625</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="50">
@@ -1799,10 +1802,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08163265306122448</v>
+        <v>0.061224489795918366</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="51">
@@ -1813,10 +1816,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="52">
@@ -1827,10 +1830,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0784313725490196</v>
+        <v>0.058823529411764705</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="53">
@@ -1841,10 +1844,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.057692307692307696</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="54">
@@ -1855,10 +1858,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07547169811320754</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="55">
@@ -1869,10 +1872,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="56">
@@ -1883,10 +1886,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07272727272727272</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="57">
@@ -1897,10 +1900,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="58">
@@ -1911,10 +1914,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="n">
-        <v>0.07017543859649122</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="59">
@@ -1925,10 +1928,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="n">
-        <v>0.06896551724137931</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="60">
@@ -1939,10 +1942,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="n">
-        <v>0.06779661016949153</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="61">
@@ -1953,10 +1956,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="62">
@@ -1967,10 +1970,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="63">
@@ -1981,10 +1984,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="64">
@@ -1995,10 +1998,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="n">
-        <v>0.06349206349206349</v>
+        <v>0.047619047619047616</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="65">
@@ -2009,10 +2012,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0625</v>
+        <v>0.046875</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="66">
@@ -2023,10 +2026,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.046153846153846156</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="67">
@@ -2037,10 +2040,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="68">
@@ -2051,10 +2054,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="n">
-        <v>0.05970149253731343</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="69">
@@ -2517,6 +2520,11 @@
       </c>
       <c r="D101" t="n">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="CY102" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
